--- a/2021届杉达课程置换信息汇总及培训计划（郑荣伦）.xlsx
+++ b/2021届杉达课程置换信息汇总及培训计划（郑荣伦）.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnzhengaya1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06ADD18-4A76-4015-AE0A-8D0C40800998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="9285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息汇总" sheetId="1" r:id="rId1"/>
     <sheet name="培训计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>2021届杉达课程置换学生信息汇总</t>
   </si>
@@ -50,15 +63,6 @@
     <t>成绩</t>
   </si>
   <si>
-    <t>企业邮件系统管理</t>
-  </si>
-  <si>
-    <t>本课程让学生全面了解邮件系统工作的原理，包含SMTP、pop3、imap、域名解析、客户端配置等，掌握邮件系统的搭建、运维等技能</t>
-  </si>
-  <si>
-    <t>该生基本了解了邮件收发的过程以及掌握了一些垃圾邮件过滤的设置，能完成基本的邮件服务器运维工作，通过模拟可能产生的退信内容，对邮件服务器处理过程有了更进一步的了解。同时还部署了邮件网关，对邮件服务器的出站和入站邮件进行监控，达到了巩固邮件服务器安全目的。熟悉邮件客户端的IMAP和POP3类型用户配置，了解IMAP和POP3的原理及区别，达到了预期的目的。</t>
-  </si>
-  <si>
     <t>职场沟通方式及沟通技巧</t>
   </si>
   <si>
@@ -68,58 +72,7 @@
     <t>定期让该生进行PPT演讲，锻炼了其表达和演讲能力。在工作中，该生也能积极地与同事进行沟通交流，</t>
   </si>
   <si>
-    <t>桌面云部署与维护</t>
-  </si>
-  <si>
-    <t>让学生了解桌面云工作原理，并实际部署桌面云系统服务端及客户端，训练桌面云的日常运维技能。</t>
-  </si>
-  <si>
-    <t>能够亲自部署桌面云系统的服务端和客户端，对桌面云的工作原理有了更进一步的了解，在操作过程中该生能够独立思考问题并通过动手操作和查找资料来解决实际问题。</t>
-  </si>
-  <si>
-    <t>存储技术与云存储</t>
-  </si>
-  <si>
-    <t>让学生全面了解传统存储类别、协议、原理等，了解存储在IT架构中的作用，学习编写存储方案，训练存储的部署和运维能力。了解云存储的基本特性，了解传统存储与云存储的区别，训练云存储的部署和运维能力。</t>
-  </si>
-  <si>
-    <t>通过在阿里云服务器上进行操作和运维，该生对云存储相对于传统存储的优点有了更深一步的体会，基本掌握了云存储的特性。</t>
-  </si>
-  <si>
-    <t>系统安全管理</t>
-  </si>
-  <si>
-    <t>主要了解和熟悉基于Linux、Windows平台的环境部署、安全配置等，了解系统安全管理与运维内容。</t>
-  </si>
-  <si>
     <t>该生通过手动部署泛微OA系统、筑店商品管理系统熟悉了Windows和Linux下的环境搭建，也了解了NGINX和APACHE的相关配置，能够熟悉使用宝塔面板对Linux进行基本运维。</t>
-  </si>
-  <si>
-    <t>公有云基础知识和实践</t>
-  </si>
-  <si>
-    <t>全面了解和熟悉公有云的产品知识，熟悉ECS、RDS、OSS、SLB等基础产品的生成和配置，熟悉从本地迁移到云上的操作过程，了解各类公有云、混合云架构知识，熟悉典型架构的搭建、配置、迁移、运维知识，培养操作能力。</t>
-  </si>
-  <si>
-    <t>该生能熟练掌握ECS、RDS、OSS、SLB等基础产品的功能及配置，对云服务器、对象存储、负载均衡有了较为深刻的理解，能够独立完成服务上云操作。具有较强的动手能力，能够独立解决配置过程中遇到的问题。</t>
-  </si>
-  <si>
-    <t>网站建设与运维</t>
-  </si>
-  <si>
-    <t>熟悉常见CMS系统及搭建，熟悉网站部署的基础知识，了解域名实名、解析等，熟悉网站ICP备案流程，熟悉云上网站建设及发布的整体流程，了解网站的基础运维、内容运维、安全运维等知识，锻炼实际运维能力。</t>
-  </si>
-  <si>
-    <t>该生能够在windows和linux下部署wordpress，对建站的流程有了一个基本的了解，熟悉境内网站ICP备案的基本流程，能够对网站进行基本的内容和安全运维。</t>
-  </si>
-  <si>
-    <t>公有云架构设计与文档编写</t>
-  </si>
-  <si>
-    <t>了解和熟悉公有云的常用架构，对相关产品和架构含义有深刻理解，锻炼架构部署的实际能力；熟悉架构图、流程图的绘制，熟悉常见应用的架构设计及文档的编写，熟悉架构方案的讲解和演示。</t>
-  </si>
-  <si>
-    <t>该生基本能够了解阿里云产品的搭配及使用，能看懂用户的服务架构图，并转换为云上的服务架构。能够自己设计公有云架构部署，熟悉架构方案的讲解。</t>
   </si>
   <si>
     <t>总评分</t>
@@ -152,16 +105,58 @@
     <t>郑荣伦</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>公司业务机器中表现层的交互逻辑，UI设计</t>
+  </si>
+  <si>
+    <t>让学生在了解公司业务流程的前提下，应用前端UI交互的知识，依据要求对业务中的需求进行实现。</t>
+  </si>
+  <si>
+    <t>让该生通过对Web三板斧（HTML、CSS、JavaScript）的培训学习，并在其基础上，利用前端MVC框架，MVVM框架对具体的业务进行实现，产出价值。</t>
+  </si>
+  <si>
+    <t>职场办公软件的应用</t>
+  </si>
+  <si>
+    <t>让学生熟悉MircoSoft Offic办公套件的使用，适应公司制式化业务办公中的任务交接及安排、汇报等流程</t>
+  </si>
+  <si>
+    <t>在对应的技术培训期间要求该生总结工作以及学习报告并交纳对应的负责人，去糟粕取精华，并与公司现存的经验碰撞催化产出。</t>
+  </si>
+  <si>
+    <t>项目版本管理和版本迭代</t>
+  </si>
+  <si>
+    <t>让学生在实际的项目开发过程中逐渐了解并行开发的流程，以及基于Git、SVN等工具的版本管理和Code Review、Pull Request的流程</t>
+  </si>
+  <si>
+    <t>通过在项目中的开发过程中负责人的follow下，逐步学习Git等版本工具的使用，理解Git常用命令的作用和应用的场景，项目版本错乱时的解决手段等等。</t>
+  </si>
+  <si>
+    <t>底层服务器部署以及Linux系统的学习</t>
+  </si>
+  <si>
+    <t>主要了解和熟悉基于Linux、Windows平台的环境部署、安全配置等，了解底层服务器中的REST API以及Debug。</t>
+  </si>
+  <si>
+    <t>Node环境下Modern JavaScript生态</t>
+  </si>
+  <si>
+    <t>通过在公司现有“自动化”工具项目中通过Vue生态下的相关技术知识、配合培训的要求完成前端部分相关的设计、开发工作</t>
+  </si>
+  <si>
+    <t>包括但不限于Webpack等前端部署工具、Grunt、Gulp、Babel等构建工具、TypeScript下的OOP风格的设计模式、Jshint/Prettier等辅助开发工具的学习和练习</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,13 +189,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -370,6 +365,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,15 +393,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,9 +494,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,6 +546,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,33 +738,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="29.45" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.6" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -752,22 +781,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="24.6" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="24.6" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -776,63 +805,63 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="24.6" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="24.6" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="24.6" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="24.6" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="24.6" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="24.6" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="24.6" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="24.6" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="24.6" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -850,47 +879,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1"/>
-    <col min="5" max="5" width="67.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1"/>
-    <col min="7" max="7" width="67.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="67.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="67.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -909,241 +938,154 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="96.75" customHeight="1">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>11</v>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4">
         <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>14</v>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7">
         <v>99</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="69.75" customHeight="1">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>17</v>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7">
         <v>98</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="70.5" customHeight="1">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>20</v>
+      <c r="B7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
         <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7">
         <v>97</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="82.5" customHeight="1">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>23</v>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7">
         <v>99</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="67.5" customHeight="1">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>26</v>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
         <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7">
         <v>98</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
-        <v>7</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.1" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7">
-        <v>99</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>8</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7">
-        <v>97</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
-        <f>SUM(D4:D11)</f>
-        <v>251</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1">
-        <f>AVERAGE(F4:F11)</f>
-        <v>98</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1">
-        <f>AVERAGE(H4:H11)</f>
+        <f>SUM(D4:D9)</f>
+        <v>201</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <f>AVERAGE(F4:F9)</f>
         <v>98</v>
       </c>
     </row>
